--- a/tests/output.xlsx
+++ b/tests/output.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,13 +18,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +38,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,13 +46,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -487,4 +500,59 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>